--- a/qa/01.测试用例/宠物系统/宠物界面测试用例.xlsx
+++ b/qa/01.测试用例/宠物系统/宠物界面测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24870" windowHeight="11355" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24870" windowHeight="11355"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="宠物技能介绍界面" sheetId="4" r:id="rId4"/>
     <sheet name="宠物进阶界面" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="1082">
   <si>
     <t>caseID</t>
   </si>
@@ -600,10 +600,6 @@
   </si>
   <si>
     <t>品级为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示玩家目前已装备的装备与可以装备装备的位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1882,10 +1878,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宠物等级小于x级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物等级等于x级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2129,18 +2121,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看提示信息-位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看提示信息-内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>位于宠物详情界面中上部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主宠设置成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3096,10 +3080,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需求材料横向显示为两个道具栏位，如图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看需求道具icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3348,10 +3328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>界面重置为满阶界面（后续右侧）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看进阶消耗情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3364,10 +3340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看消耗道具-服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看消耗金币-客户端</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3448,22 +3420,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看需求道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与宠物进阶需求道具显示规则一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看需求宠物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需求宠物的两个栏位显示在需求道具栏位后方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看需求宠物栏位显示情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3637,10 +3597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示出需求怪物icon及品质（边框颜色）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>配置需求怪物A，品质为绿色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3713,10 +3669,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玩家拥有需求宠物，条件不满足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物信息位置显示为木有该宠物字样</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3741,10 +3693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看宠物icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>包括拥有宠物icon，宠物名称，宠物性格，宠物战斗力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3753,10 +3701,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每页3个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>包括需求怪物区域，玩家拥有宠物区域，提示按钮，确定按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3770,10 +3714,6 @@
   </si>
   <si>
     <t>宠物icon与拥有宠物Aicon一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示所有符合条件的玩家拥有的宠物信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4177,6 +4117,209 @@
   </si>
   <si>
     <t>显示：进阶完成，样式如图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家没有宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切页下显示为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示宠物目前已装备的装备与可以装备装备的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看提示信息-位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物等级小于x级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物AB品级稀有度等级均相同时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这玩意应该不叫五行了吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置主宠B后，查看数据库数据记录情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录B为主宠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序不做要求（已和策划确认）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级属性规则-属性变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看技能满级时，消耗金币显示情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示金币图标及其消耗金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于宠物详情界面中上部（弹字，不是im提示）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家当前体力为A，玩家进行相关操作，查看属性变化情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家装备装备增加体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力属性刷新，属性与怪物总体力一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家当前力量为A，玩家进行相关操作，查看属性变化情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家当前智力为A，玩家进行相关操作，查看属性变化情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家当前防御为A，玩家进行相关操作，查看属性变化情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家当前速度为A，玩家进行相关操作，查看属性变化情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家装备装备增加力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家装备装备增加智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家装备装备增加防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家装备装备增加速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量属性刷新，属性与怪物总力量一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力属性刷新，属性与怪物总智力一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御属性刷新，属性与怪物总防御一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度属性刷新，属性与怪物总速度一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示需求怪物icon和品质，与配置一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所有符合条件的玩家拥有的宠物信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域最多显示3个怪物信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家拥有需求宠物，条件满足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面重置为满阶界面（后续有测）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看宠物icon-内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看宠物icon-显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合宠物icon通用规则</t>
+  </si>
+  <si>
+    <t>查看消耗宠物-服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求材料横向显示为两个道具栏位，如图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看需求道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求宠物的2个栏位显示在需求材料栏位后方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求道具显示在需求材料的4个栏位中的前2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换宠物按钮规则-满阶宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家拥有宠物AB，A为未满阶，B为满阶，查看A的宠物进阶界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为A的进阶界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家通过切换宠物按钮，切换到宠物B，查看宠物B的进阶界面显示情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为B的满阶界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例走读情况，回归用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4255,7 +4398,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4277,6 +4420,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4326,7 +4481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4422,12 +4577,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4440,12 +4589,40 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规_目录" xfId="1"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4686,7 +4863,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>219996</xdr:colOff>
+      <xdr:colOff>219995</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>130379</xdr:rowOff>
     </xdr:to>
@@ -4763,8 +4940,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>907181</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>211882</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2332</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4795,13 +4972,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>151851</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>133226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4833,13 +5010,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2989385</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>109903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1141882</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:colOff>1142296</xdr:colOff>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>188813</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4914,14 +5091,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2236305</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>298174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2693448</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>2028</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>2029</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4952,13 +5129,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>215347</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>182218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1560449</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>194201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4990,13 +5167,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>219048</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>171429</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5028,13 +5205,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>266667</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>190476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5142,14 +5319,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>115957</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>207064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1270582</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>59315</xdr:rowOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>59314</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5180,14 +5357,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>182218</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>124239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1279701</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>183555</xdr:rowOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>183554</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5762,14 +5939,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>124239</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>8282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>629001</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>10740</xdr:rowOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>10741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5800,14 +5977,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>132522</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>198782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>596348</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>24749</xdr:rowOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>24750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5838,13 +6015,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>803414</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>149087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1267240</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>176601</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5952,14 +6129,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>877956</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>99392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>631508</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>129516</xdr:rowOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>129517</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6252,10 +6429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B21:K23"/>
+  <dimension ref="B21:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6288,13 +6465,13 @@
         <v>42200</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>1027</v>
+        <v>1012</v>
       </c>
       <c r="F22" s="18">
         <v>2002</v>
@@ -6310,15 +6487,15 @@
         <v>42201</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1028</v>
+        <v>1013</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F23" s="35">
+        <v>1012</v>
+      </c>
+      <c r="F23" s="33">
         <v>2033</v>
       </c>
       <c r="G23" s="16"/>
@@ -6326,6 +6503,82 @@
       <c r="I23" s="16"/>
       <c r="J23" s="17"/>
       <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="12">
+        <v>42207</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="33"/>
+    </row>
+    <row r="25" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="33"/>
+    </row>
+    <row r="26" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="33"/>
+    </row>
+    <row r="27" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="33"/>
+    </row>
+    <row r="28" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="33"/>
+    </row>
+    <row r="29" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="33"/>
+    </row>
+    <row r="30" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="33"/>
+    </row>
+    <row r="31" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="33"/>
+    </row>
+    <row r="32" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="33"/>
+    </row>
+    <row r="33" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6335,13 +6588,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D63" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F128" sqref="F128"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6364,9 +6617,9 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -6630,134 +6883,134 @@
       <c r="E26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>55</v>
+      <c r="F26" s="39" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D28" s="6">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D29" s="6">
         <v>3</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F29" s="5" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F30" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D30" s="6">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D31" s="6">
         <v>4</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F31" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G31" s="22" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F31" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F32" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F33" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F34" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F35" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G35" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D35" s="6">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D36" s="6">
         <v>5</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F36" s="5" t="s">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F37" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="6" t="s">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D39" s="6">
         <v>1</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F39" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>58</v>
@@ -6765,15 +7018,15 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F40" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="F41" s="7" t="s">
-        <v>63</v>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F41" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>58</v>
@@ -6781,7 +7034,7 @@
     </row>
     <row r="42" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="F42" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>58</v>
@@ -6789,7 +7042,7 @@
     </row>
     <row r="43" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="F43" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>58</v>
@@ -6797,199 +7050,207 @@
     </row>
     <row r="44" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="F44" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>58</v>
       </c>
     </row>
+    <row r="45" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B46" s="6" t="s">
+      <c r="F46" s="40" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G46" s="40" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B47" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D47" s="6">
         <v>1</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G47" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F48" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D49" s="6">
+        <v>2</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F50" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D51" s="6">
+        <v>3</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F47" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D48" s="6">
-        <v>2</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F49" s="5" t="s">
+      <c r="F51" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F52" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D50" s="6">
-        <v>3</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G50" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F51" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D52" s="6">
+    <row r="53" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D53" s="6">
         <v>4</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F53" s="5" t="s">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F54" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D54" s="6">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D55" s="6">
         <v>5</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F55" s="5" t="s">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F56" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D56" s="6">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D57" s="6">
         <v>6</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F57" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="G57" s="7" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F58" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F59" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F60" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F61" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F62" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G62" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D62" s="6">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D63" s="6">
         <v>7</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F63" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>123</v>
@@ -6997,659 +7258,870 @@
     </row>
     <row r="64" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F64" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F65" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F65" s="5" t="s">
+    <row r="66" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F66" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G66" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F66" s="5" t="s">
+    <row r="67" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F67" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G67" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D67" s="6">
+    <row r="68" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D68" s="6">
         <v>8</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F68" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="G68" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F68" s="5" t="s">
+    <row r="69" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F69" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G69" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F69" s="5" t="s">
+    <row r="70" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F70" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G70" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F70" s="5" t="s">
+    <row r="71" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F71" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G71" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F71" s="5" t="s">
+    <row r="72" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F72" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G72" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D72" s="6">
+    <row r="73" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D73" s="6">
         <v>9</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E73" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G73" s="40" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F74" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G74" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F75" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F73" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G73" s="7" t="s">
+      <c r="G75" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F74" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G74" s="20" t="s">
+    <row r="76" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F76" s="5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F75" s="5" t="s">
+      <c r="G76" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G75" s="7" t="s">
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D77" s="6">
+        <v>10</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D76" s="6">
-        <v>10</v>
-      </c>
-      <c r="E76" s="5" t="s">
+      <c r="F77" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G76" s="7" t="s">
+      <c r="G77" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F78" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F79" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A81" s="31"/>
+      <c r="B81" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" s="41">
+        <v>1</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F81" s="31"/>
+      <c r="G81" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" s="31"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="G82" s="32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" s="31"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="G83" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" s="31"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="G84" s="32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" s="31"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="41">
+        <v>2</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F85" s="31"/>
+      <c r="G85" s="32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" s="31"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="G86" s="32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87" s="31"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="G87" s="32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88" s="31"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="G88" s="32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" s="31"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41">
+        <v>3</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="F89" s="31"/>
+      <c r="G89" s="32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90" s="31"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="G90" s="32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" s="31"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="G91" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92" s="31"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="G92" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93" s="31"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="G93" s="32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94" s="31"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="G94" s="32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" s="31"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="G95" s="32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" s="31"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="G96" s="32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97" s="31"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="G97" s="32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98" s="31"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="G98" s="32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99" s="31"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="G99" s="32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100" s="31"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G100" s="32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A101" s="31"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="G101" s="32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A102" s="31"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="G102" s="32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A103" s="31"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="G103" s="32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104" s="31"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="G104" s="32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105" s="31"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G105" s="32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" s="31"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41">
+        <v>4</v>
+      </c>
+      <c r="E106" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F106" s="31"/>
+      <c r="G106" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107" s="31"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="G107" s="32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108" s="31"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="G108" s="32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109" s="31"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="G109" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110" s="31"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="G110" s="32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A111" s="31"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="41"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="G111" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A112" s="31"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="G112" s="32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A113" s="31"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="41"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="G113" s="32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A114" s="31"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="41"/>
+      <c r="E114" s="31"/>
+      <c r="F114" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="G114" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A115" s="31"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="41"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="G115" s="32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A116" s="31"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="G116" s="32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A117" s="31"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="41"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G117" s="32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A118" s="31"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="41"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="G118" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A119" s="31"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="41"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="G119" s="32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A120" s="31"/>
+      <c r="B120" s="41"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="41"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="G120" s="32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A121" s="31"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="G121" s="32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A122" s="31"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G122" s="32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B124" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F77" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F78" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="B80" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D80" s="6">
+      <c r="D124" s="6">
         <v>1</v>
       </c>
-      <c r="E80" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F81" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F82" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F83" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="84" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D84" s="6">
-        <v>2</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F85" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D86" s="5"/>
-      <c r="F86" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="87" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F87" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D88" s="6">
-        <v>3</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F89" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="90" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F90" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F91" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F92" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F93" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F94" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F95" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="96" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F96" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F97" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F98" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="99" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F99" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F100" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F101" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="102" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F102" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F103" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F104" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D105" s="6">
-        <v>4</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F106" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F107" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="108" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F108" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="109" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F109" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="110" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F110" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="111" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F111" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F112" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F113" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F114" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F115" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F116" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F117" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F118" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F119" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F120" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F121" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="B123" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C123" s="6" t="s">
+      <c r="E124" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D123" s="6">
-        <v>1</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F124" s="7" t="s">
         <v>167</v>
       </c>
       <c r="G124" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F125" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F126" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G126" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="125" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="F125" s="7" t="s">
+    <row r="127" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F127" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G125" s="7" t="s">
+      <c r="G127" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="126" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="F126" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G126" s="7" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D128" s="6">
+        <v>2</v>
+      </c>
+      <c r="E128" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D127" s="6">
-        <v>2</v>
-      </c>
-      <c r="E127" s="5" t="s">
+      <c r="F128" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F128" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B130" s="6" t="s">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F129" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B131" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="D131" s="6">
+        <v>1</v>
+      </c>
+      <c r="E131" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D130" s="6">
-        <v>1</v>
-      </c>
-      <c r="E130" s="5" t="s">
+      <c r="F131" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="F130" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F131" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="G131" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F132" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G132" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F133" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D134" s="6">
+        <v>2</v>
+      </c>
+      <c r="E134" s="5" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D133" s="6">
-        <v>2</v>
-      </c>
-      <c r="E133" s="5" t="s">
+      <c r="F134" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F133" s="5" t="s">
+      <c r="G134" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G133" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F134" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F135" s="5" t="s">
         <v>243</v>
       </c>
       <c r="G135" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F136" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F137" s="5" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F136" s="5" t="s">
+      <c r="G137" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G136" s="7" t="s">
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D138" s="6">
+        <v>3</v>
+      </c>
+      <c r="E138" s="5" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D137" s="6">
-        <v>3</v>
-      </c>
-      <c r="E137" s="5" t="s">
+      <c r="G138" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G137" s="7" t="s">
+    </row>
+    <row r="139" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="D139" s="6">
+        <v>4</v>
+      </c>
+      <c r="E139" s="7" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="138" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="D138" s="6">
-        <v>4</v>
-      </c>
-      <c r="E138" s="7" t="s">
+      <c r="G139" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G138" s="7" t="s">
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C141" s="24" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C140" s="24" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -7658,26 +8130,26 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 K2:IU2">
-    <cfRule type="cellIs" dxfId="23" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="21" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7689,13 +8161,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J196"/>
+  <dimension ref="A1:J213"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G161" sqref="G161"/>
+      <selection pane="bottomRight" activeCell="J207" sqref="J207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7718,9 +8190,9 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -7756,46 +8228,46 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F4" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
       <c r="F5" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F6" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -7803,21 +8275,21 @@
         <v>2</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F8" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -7825,10 +8297,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -7836,10 +8308,10 @@
         <v>4</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G10" s="20"/>
     </row>
@@ -7847,10 +8319,10 @@
       <c r="D11" s="25"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -7858,29 +8330,29 @@
         <v>5</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F13" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F14" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -7888,10 +8360,10 @@
         <v>6</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -7899,175 +8371,178 @@
         <v>7</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="G16" s="7" t="s">
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="F17" s="5" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D18" s="25">
         <v>8</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.15">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D19" s="25"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G19" s="20"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D20" s="25"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="20"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D21" s="25"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="20"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D22" s="25"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="20"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D23" s="25"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="20"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D24" s="6">
         <v>9</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="F25" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="G25" s="29" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D26" s="6">
         <v>10</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.15">
       <c r="F27" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="F28" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F28" s="5" t="s">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="F29" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F29" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D30" s="6">
         <v>12</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="J30" s="42" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="F31" s="5" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F31" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="G31" s="20" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.15">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.15">
       <c r="F32" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F33" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G33" s="20" t="s">
         <v>340</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F34" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F35" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.15">
@@ -8075,29 +8550,29 @@
         <v>13</v>
       </c>
       <c r="E36" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>343</v>
-      </c>
       <c r="G36" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F37" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F38" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.15">
@@ -8105,21 +8580,21 @@
         <v>14</v>
       </c>
       <c r="E39" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F40" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.15">
@@ -8127,42 +8602,42 @@
         <v>15</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F42" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F43" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F44" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F45" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.15">
@@ -8178,33 +8653,33 @@
         <v>16</v>
       </c>
       <c r="E48" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>393</v>
-      </c>
       <c r="G48" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F49" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G49" s="20"/>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F50" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G50" s="20"/>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F51" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.15">
@@ -8212,10 +8687,10 @@
         <v>17</v>
       </c>
       <c r="E52" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.15">
@@ -8223,10 +8698,10 @@
         <v>18</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.15">
@@ -8234,33 +8709,33 @@
         <v>19</v>
       </c>
       <c r="E54" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="55" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F55" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G55" s="20"/>
     </row>
     <row r="56" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F56" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G56" s="20"/>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F57" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="58" spans="4:7" x14ac:dyDescent="0.15">
@@ -8268,18 +8743,18 @@
         <v>20</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F59" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.15">
@@ -8287,31 +8762,31 @@
         <v>21</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F61" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F62" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F63" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" spans="4:7" x14ac:dyDescent="0.15">
@@ -8319,33 +8794,33 @@
         <v>22</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F65" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G65" s="20"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F66" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G66" s="20"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F67" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="33" x14ac:dyDescent="0.15">
@@ -8353,26 +8828,26 @@
         <v>23</v>
       </c>
       <c r="E68" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F69" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F70" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
@@ -8380,68 +8855,68 @@
         <v>24</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F72" s="21" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G72" s="20"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F73" s="21" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G73" s="20"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F74" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B76" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F77" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F78" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F79" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.15">
@@ -8449,29 +8924,29 @@
         <v>2</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F81" s="5" t="s">
-        <v>529</v>
+        <v>1034</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>531</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F82" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.15">
@@ -8479,10 +8954,10 @@
         <v>3</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
@@ -8490,202 +8965,206 @@
         <v>4</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D85" s="25">
+      <c r="D85" s="43">
         <v>5</v>
       </c>
-      <c r="E85" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="F85" s="21"/>
-      <c r="G85" s="20" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B87" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D87" s="6">
+      <c r="E85" s="39" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F85" s="39"/>
+      <c r="G85" s="40" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D86" s="25">
+        <v>6</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="F86" s="21"/>
+      <c r="G86" s="20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B88" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D88" s="6">
         <v>1</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E88" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="G88" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F89" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="G89" s="20" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="88" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="F88" s="5" t="s">
+    <row r="90" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="D90" s="6">
+        <v>2</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F90" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G88" s="20" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="D89" s="6">
-        <v>2</v>
-      </c>
-      <c r="E89" s="7" t="s">
+      <c r="G90" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F91" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F92" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F89" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G89" s="7" t="s">
+      <c r="G92" s="7" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F90" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F91" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="F92" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="93" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="F93" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G93" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F94" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D95" s="6">
+        <v>3</v>
+      </c>
+      <c r="E95" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D94" s="6">
-        <v>3</v>
-      </c>
-      <c r="E94" s="5" t="s">
+      <c r="F95" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F95" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D96" s="6">
+      <c r="F96" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D97" s="6">
         <v>4</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E97" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F96" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F97" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="G97" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F98" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F99" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G99" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F100" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B102" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C102" s="28" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="B101" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C101" s="28" t="s">
+      <c r="D102" s="6">
+        <v>1</v>
+      </c>
+      <c r="E102" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="D101" s="6">
-        <v>1</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C102" s="28"/>
-      <c r="E102" s="7"/>
       <c r="F102" s="5" t="s">
         <v>303</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C103" s="28"/>
+      <c r="E103" s="7"/>
       <c r="F103" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F104" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>313</v>
@@ -8693,23 +9172,23 @@
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F105" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F106" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F107" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>313</v>
@@ -8717,18 +9196,18 @@
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F108" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F109" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G109" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.15">
@@ -8736,795 +9215,947 @@
         <v>311</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B112" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C112" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F111" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B113" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D113" s="6">
+        <v>1</v>
+      </c>
+      <c r="E113" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D112" s="6">
-        <v>1</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="F113" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="G113" s="7" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="F114" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="115" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="F115" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D116" s="6">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F116" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D117" s="6">
         <v>2</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E117" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="G117" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="F117" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="118" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="F118" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="119" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="F119" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G119" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F120" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D121" s="6">
+        <v>3</v>
+      </c>
+      <c r="E121" s="5" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D120" s="6">
-        <v>3</v>
-      </c>
-      <c r="E120" s="5" t="s">
+      <c r="F121" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="G121" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="G120" s="7" t="s">
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F122" s="5" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F121" s="5" t="s">
+      <c r="G122" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="G121" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D122" s="6">
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D123" s="6">
         <v>4</v>
       </c>
-      <c r="E122" s="5" t="s">
+      <c r="E123" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F123" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="F122" s="5" t="s">
+      <c r="G123" s="20"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F124" s="21" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F123" s="5" t="s">
+      <c r="G124" s="20"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F125" s="21" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F124" s="5" t="s">
+      <c r="G125" s="20"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F126" s="21" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F125" s="5" t="s">
+      <c r="G126" s="20"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D127" s="6">
+        <v>5</v>
+      </c>
+      <c r="E127" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D126" s="6">
-        <v>5</v>
-      </c>
-      <c r="E126" s="5" t="s">
+      <c r="G127" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="G126" s="7" t="s">
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B129" s="6" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B128" s="6" t="s">
+      <c r="C129" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="D129" s="6">
+        <v>1</v>
+      </c>
+      <c r="E129" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D128" s="6">
-        <v>1</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F129" s="5" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D130" s="6">
+      <c r="F130" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D131" s="6">
         <v>2</v>
       </c>
-      <c r="E130" s="5" t="s">
+      <c r="E131" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G131" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G130" s="7" t="s">
+    </row>
+    <row r="133" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="D133" s="6">
+        <v>1</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F133" s="26" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="132" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="D132" s="6">
+      <c r="G133" s="27"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F134" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="G134" s="27"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D135" s="6">
+        <v>2</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B137" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D137" s="6">
         <v>1</v>
       </c>
-      <c r="E132" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="F132" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="G132" s="27"/>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F133" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="G133" s="27"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D134" s="6">
+      <c r="E137" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D138" s="6">
         <v>2</v>
       </c>
-      <c r="E134" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B136" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="D136" s="6">
-        <v>1</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="G136" s="7" t="s">
+      <c r="E138" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D137" s="6">
-        <v>2</v>
-      </c>
-      <c r="E137" s="5" t="s">
+      <c r="G138" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F138" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F139" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="G139" s="22" t="s">
-        <v>981</v>
+        <v>409</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F140" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="G140" s="22" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F141" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D142" s="6">
+        <v>3</v>
+      </c>
+      <c r="E142" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="G140" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D141" s="6">
-        <v>3</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F142" s="5" t="s">
-        <v>416</v>
-      </c>
       <c r="G142" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F143" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="G143" s="22" t="s">
-        <v>431</v>
+        <v>415</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F144" s="5" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="G144" s="22" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D145" s="6">
+      <c r="F145" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="G145" s="22" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D146" s="6">
         <v>4</v>
       </c>
-      <c r="E145" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G145" s="22" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F146" s="5" t="s">
-        <v>418</v>
+      <c r="E146" s="5" t="s">
+        <v>412</v>
       </c>
       <c r="G146" s="22" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F147" s="5" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G147" s="22" t="s">
-        <v>982</v>
+        <v>432</v>
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F148" s="5" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G148" s="22" t="s">
-        <v>434</v>
+        <v>967</v>
       </c>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D149" s="6">
+      <c r="F149" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G149" s="22" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D150" s="6">
         <v>5</v>
       </c>
-      <c r="E149" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G149" s="22" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F150" s="5" t="s">
-        <v>420</v>
+      <c r="E150" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="G150" s="22" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F151" s="5" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G151" s="22" t="s">
-        <v>983</v>
+        <v>437</v>
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F152" s="5" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="G152" s="22" t="s">
-        <v>437</v>
+        <v>968</v>
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D153" s="6">
+      <c r="F153" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G153" s="22" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D154" s="6">
         <v>6</v>
       </c>
-      <c r="E153" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G153" s="22" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F154" s="5" t="s">
-        <v>422</v>
+      <c r="E154" s="5" t="s">
+        <v>414</v>
       </c>
       <c r="G154" s="22" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F155" s="5" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G155" s="22" t="s">
-        <v>984</v>
+        <v>434</v>
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F156" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B158" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C158" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="G156" s="22" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F157" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B159" s="43" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C159" s="43" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D159" s="43">
+        <v>1</v>
+      </c>
+      <c r="E159" s="40" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F159" s="39" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G159" s="40" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B160" s="43"/>
+      <c r="C160" s="43"/>
+      <c r="D160" s="43"/>
+      <c r="E160" s="39"/>
+      <c r="F160" s="39"/>
+      <c r="G160" s="40"/>
+    </row>
+    <row r="161" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B161" s="43"/>
+      <c r="C161" s="43"/>
+      <c r="D161" s="43"/>
+      <c r="E161" s="40" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F161" s="39" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G161" s="40" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B162" s="43"/>
+      <c r="C162" s="43"/>
+      <c r="D162" s="43"/>
+      <c r="E162" s="39"/>
+      <c r="F162" s="39"/>
+      <c r="G162" s="40"/>
+    </row>
+    <row r="163" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B163" s="43"/>
+      <c r="C163" s="43"/>
+      <c r="D163" s="43"/>
+      <c r="E163" s="40" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F163" s="39" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G163" s="40" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B164" s="43"/>
+      <c r="C164" s="43"/>
+      <c r="D164" s="43"/>
+      <c r="E164" s="39"/>
+      <c r="F164" s="39"/>
+      <c r="G164" s="40"/>
+    </row>
+    <row r="165" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B165" s="43"/>
+      <c r="C165" s="43"/>
+      <c r="D165" s="43"/>
+      <c r="E165" s="40" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F165" s="39" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G165" s="40" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B166" s="43"/>
+      <c r="C166" s="43"/>
+      <c r="D166" s="43"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="39"/>
+      <c r="G166" s="40"/>
+    </row>
+    <row r="167" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B167" s="43"/>
+      <c r="C167" s="43"/>
+      <c r="D167" s="43"/>
+      <c r="E167" s="40" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F167" s="39" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G167" s="40" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B170" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D170" s="6">
+        <v>1</v>
+      </c>
+      <c r="E170" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="D158" s="6">
+      <c r="F170" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F171" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F172" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="G172" s="7" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B174" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D174" s="6">
         <v>1</v>
       </c>
-      <c r="E158" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="F158" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="G158" s="7" t="s">
+      <c r="E174" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F174" s="39" t="s">
+        <v>467</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F175" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F176" s="39" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G176" s="7" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F159" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="G159" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F160" s="5" t="s">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D177" s="6">
+        <v>2</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F178" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F179" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F180" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="G180" s="20"/>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F181" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="G181" s="20"/>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D182" s="6">
+        <v>3</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="G182" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B184" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="C184" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="D184" s="34">
+        <v>1</v>
+      </c>
+      <c r="E184" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="F184" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="G184" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="G160" s="7" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="162" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="B162" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="D162" s="6">
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B185" s="34"/>
+      <c r="C185" s="34"/>
+      <c r="D185" s="34"/>
+      <c r="E185" s="36"/>
+      <c r="F185" s="36" t="s">
+        <v>481</v>
+      </c>
+      <c r="G185" s="35" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B186" s="34"/>
+      <c r="C186" s="34"/>
+      <c r="D186" s="34">
+        <v>2</v>
+      </c>
+      <c r="E186" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="F186" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="G186" s="35" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B187" s="34"/>
+      <c r="C187" s="34"/>
+      <c r="D187" s="34"/>
+      <c r="E187" s="36"/>
+      <c r="F187" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="G187" s="35" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B188" s="34"/>
+      <c r="C188" s="34"/>
+      <c r="D188" s="34"/>
+      <c r="E188" s="36"/>
+      <c r="F188" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="G188" s="35" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B189" s="34"/>
+      <c r="C189" s="34"/>
+      <c r="D189" s="34"/>
+      <c r="E189" s="36"/>
+      <c r="F189" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="G189" s="35"/>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B190" s="34"/>
+      <c r="C190" s="34"/>
+      <c r="D190" s="34"/>
+      <c r="E190" s="36"/>
+      <c r="F190" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="G190" s="35"/>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B191" s="34"/>
+      <c r="C191" s="34"/>
+      <c r="D191" s="34">
+        <v>3</v>
+      </c>
+      <c r="E191" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="F191" s="36"/>
+      <c r="G191" s="35" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B192" s="34"/>
+      <c r="C192" s="34"/>
+      <c r="D192" s="34"/>
+      <c r="E192" s="36"/>
+      <c r="F192" s="36"/>
+      <c r="G192" s="35"/>
+    </row>
+    <row r="194" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B194" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D194" s="6">
         <v>1</v>
       </c>
-      <c r="E162" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="F162" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="G162" s="7" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F163" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F164" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="G164" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D165" s="6">
+      <c r="E194" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="G194" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F195" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G195" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F196" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D197" s="6">
         <v>2</v>
       </c>
-      <c r="E165" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="G165" s="7" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F166" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F167" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="G167" s="7" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F168" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="G168" s="20"/>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F169" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="G169" s="20"/>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D170" s="6">
+      <c r="E197" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="G197" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F198" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G198" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F199" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D200" s="6">
         <v>3</v>
       </c>
-      <c r="E170" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="G170" s="7" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B172" s="36" t="s">
-        <v>489</v>
-      </c>
-      <c r="C172" s="36" t="s">
-        <v>480</v>
-      </c>
-      <c r="D172" s="36">
+      <c r="E200" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="G200" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F201" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G201" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F202" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="G202" s="7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D203" s="6">
+        <v>4</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="G203" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F204" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F205" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D206" s="6">
+        <v>5</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="G206" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B208" s="43" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C208" s="43" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D208" s="43">
         <v>1</v>
       </c>
-      <c r="E172" s="37" t="s">
-        <v>481</v>
-      </c>
-      <c r="F172" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="G172" s="37" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B173" s="36"/>
-      <c r="C173" s="36"/>
-      <c r="D173" s="36"/>
-      <c r="E173" s="38"/>
-      <c r="F173" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="G173" s="37" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B174" s="36"/>
-      <c r="C174" s="36"/>
-      <c r="D174" s="36">
+      <c r="E208" s="40" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F208" s="39"/>
+      <c r="G208" s="40" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B209" s="43"/>
+      <c r="C209" s="43"/>
+      <c r="D209" s="43">
         <v>2</v>
       </c>
-      <c r="E174" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="F174" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="G174" s="37" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B175" s="36"/>
-      <c r="C175" s="36"/>
-      <c r="D175" s="36"/>
-      <c r="E175" s="38"/>
-      <c r="F175" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="G175" s="37" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B176" s="36"/>
-      <c r="C176" s="36"/>
-      <c r="D176" s="36"/>
-      <c r="E176" s="38"/>
-      <c r="F176" s="38" t="s">
-        <v>477</v>
-      </c>
-      <c r="G176" s="37" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B177" s="36"/>
-      <c r="C177" s="36"/>
-      <c r="D177" s="36"/>
-      <c r="E177" s="38"/>
-      <c r="F177" s="38" t="s">
-        <v>474</v>
-      </c>
-      <c r="G177" s="37"/>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B178" s="36"/>
-      <c r="C178" s="36"/>
-      <c r="D178" s="36"/>
-      <c r="E178" s="38"/>
-      <c r="F178" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="G178" s="37"/>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B179" s="36"/>
-      <c r="C179" s="36"/>
-      <c r="D179" s="36">
-        <v>3</v>
-      </c>
-      <c r="E179" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="F179" s="38"/>
-      <c r="G179" s="37" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B180" s="36"/>
-      <c r="C180" s="36"/>
-      <c r="D180" s="36"/>
-      <c r="E180" s="38"/>
-      <c r="F180" s="38"/>
-      <c r="G180" s="37"/>
-    </row>
-    <row r="182" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="B182" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="D182" s="6">
+      <c r="E209" s="40" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F209" s="39"/>
+      <c r="G209" s="40" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B213" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C213" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D213" s="25">
         <v>1</v>
       </c>
-      <c r="E182" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="G182" s="7" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F183" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="G183" s="7" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F184" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="G184" s="7" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D185" s="6">
-        <v>2</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="F185" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="G185" s="7" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F186" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="G186" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F187" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="G187" s="7" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D188" s="6">
-        <v>3</v>
-      </c>
-      <c r="E188" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="F188" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="G188" s="7" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F189" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="G189" s="7" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F190" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="G190" s="7" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D191" s="6">
-        <v>4</v>
-      </c>
-      <c r="E191" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="F191" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="G191" s="7" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F192" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="G192" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F193" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="G193" s="7" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D194" s="6">
-        <v>5</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="G194" s="7" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B196" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C196" s="25" t="s">
+      <c r="E213" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="D196" s="25">
-        <v>1</v>
-      </c>
-      <c r="E196" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="F196" s="21"/>
-      <c r="G196" s="20"/>
+      <c r="F213" s="21"/>
+      <c r="G213" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9532,26 +10163,26 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 K2:IU2">
-    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9562,13 +10193,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J187"/>
+  <dimension ref="A1:J188"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D159" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J170" sqref="J170"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -9591,9 +10222,9 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -9629,38 +10260,38 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F4" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F5" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -9668,21 +10299,21 @@
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F7" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -9690,26 +10321,26 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F9" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F10" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -9717,10 +10348,10 @@
         <v>4</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.15">
@@ -9728,45 +10359,45 @@
         <v>5</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F13" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F14" s="5" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="F15" s="5" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F16" s="5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.15">
@@ -9774,34 +10405,34 @@
         <v>6</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F18" s="5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F19" s="5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F20" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="21" spans="4:7" ht="33" x14ac:dyDescent="0.15">
@@ -9809,82 +10440,82 @@
         <v>7</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F22" s="5" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F23" s="5" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F24" s="5" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F25" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F26" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F27" s="5" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F28" s="5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F29" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F30" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="31" spans="4:7" ht="33" x14ac:dyDescent="0.15">
@@ -9892,42 +10523,42 @@
         <v>8</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F32" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F33" s="5" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F34" s="5" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F35" s="5" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.15">
@@ -9935,39 +10566,39 @@
         <v>9</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F37" s="21" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G37" s="20"/>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F38" s="21" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="G38" s="20"/>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F39" s="21" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F40" s="5" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.15">
@@ -9975,77 +10606,77 @@
         <v>10</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F42" s="5" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F43" s="5" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F44" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F45" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F46" s="5" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F47" s="5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F48" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F49" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.15">
@@ -10053,21 +10684,21 @@
         <v>11</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F51" s="5" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.15">
@@ -10075,29 +10706,29 @@
         <v>12</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F53" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F54" s="5" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
@@ -10105,18 +10736,18 @@
         <v>13</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F56" s="5" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.15">
@@ -10124,65 +10755,65 @@
         <v>14</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F58" s="5" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F59" s="5" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="B61" s="6" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D61" s="6">
         <v>1</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F62" s="5" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F63" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.15">
@@ -10190,10 +10821,10 @@
         <v>2</v>
       </c>
       <c r="E64" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.15">
@@ -10201,29 +10832,29 @@
         <v>3</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F66" s="23" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F67" s="23" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="33" x14ac:dyDescent="0.15">
@@ -10231,29 +10862,29 @@
         <v>4</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F69" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F70" s="21" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.15">
@@ -10261,21 +10892,21 @@
         <v>5</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F72" s="23" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.15">
@@ -10283,14 +10914,14 @@
         <v>6</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F73" s="21"/>
       <c r="G73" s="20" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.15">
@@ -10298,33 +10929,33 @@
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B75" s="6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D75" s="6">
         <v>1</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C76" s="30" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D76" s="6">
         <v>2</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.15">
@@ -10332,62 +10963,62 @@
         <v>3</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F78" s="5" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F79" s="5" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="B81" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D81" s="6">
         <v>1</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="82" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="F82" s="20" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="F83" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="33" x14ac:dyDescent="0.15">
@@ -10395,37 +11026,37 @@
         <v>2</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F85" s="5" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F86" s="5" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F87" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.15">
@@ -10433,52 +11064,52 @@
         <v>1</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F91" s="21"/>
       <c r="G91" s="20" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B93" s="6" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D93" s="6">
         <v>1</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F94" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="95" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="F95" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="G95" s="7" t="s">
         <v>689</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="96" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="F96" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.15">
@@ -10486,29 +11117,29 @@
         <v>2</v>
       </c>
       <c r="E97" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>695</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F98" s="5" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F99" s="5" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="100" spans="2:7" ht="33" x14ac:dyDescent="0.15">
@@ -10516,687 +11147,699 @@
         <v>3</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F101" s="5" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F102" s="5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="B104" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="D104" s="6">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D103" s="43">
+        <v>4</v>
+      </c>
+      <c r="E103" s="39" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F103" s="39"/>
+      <c r="G103" s="40" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B105" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D105" s="6">
         <v>1</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E105" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="G105" s="7" t="s">
         <v>711</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="F105" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="106" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="F106" s="7" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.15">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="F107" s="7" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F108" s="7" t="s">
-        <v>623</v>
+        <v>715</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F109" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F110" s="7" t="s">
-        <v>720</v>
+        <v>620</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="111" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="F111" s="7" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="112" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="F112" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F113" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F114" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D115" s="6">
+        <v>2</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="G115" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="G112" s="7" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F113" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D114" s="6">
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B118" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="D118" s="6">
+        <v>1</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="D119" s="6">
         <v>2</v>
       </c>
-      <c r="E114" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B117" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>985</v>
-      </c>
-      <c r="D117" s="6">
-        <v>1</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="D118" s="6">
-        <v>2</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F119" s="5" t="s">
-        <v>990</v>
+      <c r="E119" s="5" t="s">
+        <v>973</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>1021</v>
+        <v>974</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F120" s="5" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F121" s="5" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F122" s="5" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D124" s="6">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F123" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D125" s="6">
         <v>1</v>
       </c>
-      <c r="E124" s="5" t="s">
-        <v>994</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="D125" s="6">
+      <c r="E125" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="D126" s="6">
         <v>2</v>
       </c>
-      <c r="E125" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F126" s="5" t="s">
-        <v>990</v>
+      <c r="E126" s="5" t="s">
+        <v>973</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>1021</v>
+        <v>974</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F127" s="5" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F128" s="5" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="129" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F129" s="5" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="131" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D131" s="6">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="130" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F130" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="132" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D132" s="6">
         <v>1</v>
       </c>
-      <c r="E131" s="5" t="s">
-        <v>997</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="132" spans="4:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="D132" s="6">
+      <c r="E132" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="133" spans="4:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="D133" s="6">
         <v>2</v>
       </c>
-      <c r="E132" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="133" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F133" s="5" t="s">
-        <v>990</v>
+      <c r="E133" s="5" t="s">
+        <v>973</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>1021</v>
+        <v>974</v>
       </c>
     </row>
     <row r="134" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F134" s="5" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="135" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F135" s="5" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="136" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F136" s="5" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="138" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D138" s="6">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="137" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F137" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="139" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D139" s="6">
         <v>1</v>
       </c>
-      <c r="E138" s="5" t="s">
-        <v>999</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="139" spans="4:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="D139" s="6">
+      <c r="E139" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="140" spans="4:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="D140" s="6">
         <v>2</v>
       </c>
-      <c r="E139" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="140" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F140" s="5" t="s">
-        <v>990</v>
+      <c r="E140" s="5" t="s">
+        <v>973</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>1021</v>
+        <v>974</v>
       </c>
     </row>
     <row r="141" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F141" s="5" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="142" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F142" s="5" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="143" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F143" s="5" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="145" spans="4:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="D145" s="6">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="144" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F144" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="146" spans="4:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="D146" s="6">
         <v>1</v>
       </c>
-      <c r="E145" s="5" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="147" spans="4:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="D147" s="6">
+      <c r="E146" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="148" spans="4:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="D148" s="6">
         <v>1</v>
       </c>
-      <c r="E147" s="5" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="149" spans="4:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="D149" s="6">
+      <c r="E148" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="150" spans="4:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="D150" s="6">
         <v>1</v>
       </c>
-      <c r="E149" s="5" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="150" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="G150" s="5"/>
-    </row>
-    <row r="151" spans="4:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="D151" s="6">
-        <v>1</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>1006</v>
-      </c>
+      <c r="E150" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="151" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G151" s="5"/>
     </row>
     <row r="152" spans="4:7" ht="33" x14ac:dyDescent="0.15">
       <c r="D152" s="6">
+        <v>1</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="153" spans="4:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="D153" s="6">
         <v>2</v>
       </c>
-      <c r="E152" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="153" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F153" s="5" t="s">
-        <v>990</v>
+      <c r="E153" s="5" t="s">
+        <v>973</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>1021</v>
+        <v>974</v>
       </c>
     </row>
     <row r="154" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F154" s="5" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="155" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F155" s="5" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="156" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F156" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="157" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F157" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="159" spans="4:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="D159" s="6">
+        <v>1</v>
+      </c>
+      <c r="E159" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="G156" s="7" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="158" spans="4:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="D158" s="6">
-        <v>1</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G158" s="7" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D159" s="6">
+      <c r="G159" s="7" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="160" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D160" s="6">
         <v>2</v>
       </c>
-      <c r="E159" s="5" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G159" s="7" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F160" s="5" t="s">
-        <v>1012</v>
+      <c r="E160" s="5" t="s">
+        <v>995</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
     </row>
     <row r="161" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F161" s="5" t="s">
-        <v>1013</v>
+        <v>997</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="162" spans="4:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="D162" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="162" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F162" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="163" spans="4:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="D163" s="6">
         <v>3</v>
       </c>
-      <c r="E162" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="G162" s="7" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="163" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F163" s="5" t="s">
-        <v>990</v>
+      <c r="E163" s="5" t="s">
+        <v>973</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>1021</v>
+        <v>974</v>
       </c>
     </row>
     <row r="164" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F164" s="5" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="165" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F165" s="5" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="166" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F166" s="5" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="168" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D168" s="6">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="167" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F167" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="169" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D169" s="6">
         <v>1</v>
       </c>
-      <c r="E168" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="169" spans="4:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="D169" s="6">
+      <c r="E169" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="170" spans="4:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="D170" s="6">
         <v>2</v>
       </c>
-      <c r="E169" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="G169" s="7" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="170" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F170" s="5" t="s">
-        <v>990</v>
+      <c r="E170" s="5" t="s">
+        <v>973</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>1021</v>
+        <v>974</v>
       </c>
     </row>
     <row r="171" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F171" s="5" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="172" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F172" s="5" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="173" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F173" s="5" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="175" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D175" s="6">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="174" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F174" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="176" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D176" s="6">
         <v>1</v>
       </c>
-      <c r="E175" s="5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G175" s="7" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="176" spans="4:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="D176" s="6">
+      <c r="E176" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="177" spans="4:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="D177" s="6">
         <v>2</v>
       </c>
-      <c r="E176" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="G176" s="7" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F177" s="5" t="s">
-        <v>990</v>
+      <c r="E177" s="5" t="s">
+        <v>973</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>1021</v>
+        <v>974</v>
       </c>
     </row>
     <row r="178" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F178" s="5" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="179" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F179" s="5" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="180" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F180" s="5" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="182" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D182" s="6">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="181" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F181" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="183" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D183" s="6">
         <v>1</v>
       </c>
-      <c r="E182" s="5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G182" s="7" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="183" spans="4:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="D183" s="6">
+      <c r="E183" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="184" spans="4:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="D184" s="6">
         <v>2</v>
       </c>
-      <c r="E183" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="G183" s="7" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F184" s="5" t="s">
-        <v>990</v>
+      <c r="E184" s="5" t="s">
+        <v>973</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>1021</v>
+        <v>974</v>
       </c>
     </row>
     <row r="185" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F185" s="5" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="186" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F186" s="5" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="187" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F187" s="5" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>1024</v>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="188" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F188" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="G188" s="7" t="s">
+        <v>1009</v>
       </c>
     </row>
   </sheetData>
@@ -11205,26 +11848,26 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 K2:IU2">
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11235,9 +11878,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J139"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
@@ -11261,9 +11904,9 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -11299,38 +11942,38 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="F4" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F5" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -11338,21 +11981,21 @@
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F7" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -11360,21 +12003,21 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F9" s="5" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -11382,11 +12025,11 @@
         <v>4</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="20" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -11394,29 +12037,29 @@
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F12" s="5" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F13" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -11424,21 +12067,21 @@
         <v>6</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>758</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F15" s="5" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -11446,21 +12089,21 @@
         <v>7</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F17" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
@@ -11468,29 +12111,29 @@
         <v>8</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>790</v>
+        <v>1071</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F19" s="5" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F20" s="5" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
@@ -11498,66 +12141,66 @@
         <v>9</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F22" s="21" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F23" s="21" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F24" s="5" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F25" s="5" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="B26" s="6" t="s">
-        <v>974</v>
+        <v>959</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>975</v>
+        <v>960</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>976</v>
+        <v>961</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>977</v>
+        <v>962</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F27" s="5" t="s">
-        <v>978</v>
+        <v>963</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="33" x14ac:dyDescent="0.15">
@@ -11565,38 +12208,38 @@
         <v>2</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>979</v>
+        <v>964</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>977</v>
+        <v>962</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>980</v>
+        <v>965</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F29" s="5" t="s">
-        <v>978</v>
+        <v>963</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>980</v>
+        <v>965</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="B31" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D31" s="6">
         <v>1</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>773</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
@@ -11604,10 +12247,10 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
@@ -11615,26 +12258,26 @@
         <v>3</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F34" s="5" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F35" s="5" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
@@ -11642,21 +12285,21 @@
         <v>4</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F37" s="5" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="33" x14ac:dyDescent="0.15">
@@ -11664,34 +12307,34 @@
         <v>5</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F39" s="5" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F40" s="5" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F41" s="5" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
@@ -11699,29 +12342,29 @@
         <v>6</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F43" s="5" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F44" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>780</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
@@ -11729,19 +12372,19 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D46" s="6">
         <v>1</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
@@ -11749,26 +12392,26 @@
         <v>2</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F48" s="5" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F49" s="5" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.15">
@@ -11776,62 +12419,62 @@
         <v>3</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F50" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>806</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F51" s="5" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F52" s="5" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="B54" s="6" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="D54" s="6">
         <v>1</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F55" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>862</v>
+        <v>785</v>
+      </c>
+      <c r="G55" s="40" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F56" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>864</v>
+        <v>854</v>
+      </c>
+      <c r="G56" s="40" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.15">
@@ -11839,20 +12482,20 @@
         <v>2</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F58" s="5" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F59" s="5" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
@@ -11860,10 +12503,10 @@
         <v>3</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
@@ -11871,18 +12514,18 @@
         <v>4</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F62" s="5" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.15">
@@ -11890,34 +12533,34 @@
         <v>5</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F64" s="5" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F65" s="5" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F66" s="5" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
@@ -11925,65 +12568,65 @@
         <v>6</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F68" s="5" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B70" s="6" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="D70" s="6">
         <v>1</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="F70" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>895</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F71" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="F72" s="5" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F73" s="5" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.15">
@@ -11991,21 +12634,21 @@
         <v>2</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F75" s="5" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.15">
@@ -12013,10 +12656,10 @@
         <v>3</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.15">
@@ -12024,43 +12667,43 @@
         <v>4</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>909</v>
+        <v>896</v>
+      </c>
+      <c r="G77" s="40" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F78" s="5" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F79" s="5" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F80" s="5" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
     </row>
     <row r="81" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E81" s="31" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="F81" s="31"/>
       <c r="G81" s="32" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
     </row>
     <row r="82" spans="4:7" ht="33" x14ac:dyDescent="0.15">
@@ -12068,34 +12711,34 @@
         <v>5</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>973</v>
+        <v>958</v>
       </c>
     </row>
     <row r="83" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F83" s="5" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
     </row>
     <row r="84" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F84" s="5" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
     </row>
     <row r="85" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F85" s="5" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
     </row>
     <row r="86" spans="4:7" x14ac:dyDescent="0.15">
@@ -12103,29 +12746,29 @@
         <v>6</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
     </row>
     <row r="87" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F87" s="5" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
     </row>
     <row r="88" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F88" s="5" t="s">
-        <v>928</v>
+        <v>1064</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>943</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="89" spans="4:7" x14ac:dyDescent="0.15">
@@ -12133,37 +12776,37 @@
         <v>7</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
     </row>
     <row r="90" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F90" s="5" t="s">
-        <v>937</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>938</v>
+        <v>924</v>
+      </c>
+      <c r="G90" s="40" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="91" spans="4:7" ht="33" x14ac:dyDescent="0.15">
       <c r="F91" s="5" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
     </row>
     <row r="92" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F92" s="5" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
     </row>
     <row r="93" spans="4:7" x14ac:dyDescent="0.15">
@@ -12171,452 +12814,460 @@
         <v>8</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>941</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>935</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>942</v>
+        <v>927</v>
+      </c>
+      <c r="F93" s="39" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G93" s="40" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="94" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F94" s="5" t="s">
-        <v>940</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>945</v>
+      <c r="F94" s="39" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G94" s="40" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="95" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F95" s="5" t="s">
-        <v>385</v>
+        <v>926</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>946</v>
+        <v>930</v>
       </c>
     </row>
     <row r="96" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F96" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F97" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D98" s="6">
+        <v>9</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="99" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F99" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D100" s="6">
+        <v>10</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="101" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F101" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="102" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D102" s="6">
+        <v>11</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="103" spans="4:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F103" s="5" t="s">
         <v>944</v>
       </c>
-      <c r="G96" s="7" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D97" s="6">
-        <v>9</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>949</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F98" s="5" t="s">
-        <v>951</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="99" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D99" s="6">
-        <v>10</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>949</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F100" s="5" t="s">
-        <v>951</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D101" s="6">
-        <v>11</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>956</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="102" spans="4:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="F102" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D103" s="6">
+      <c r="G103" s="7" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="104" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D104" s="6">
         <v>12</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E104" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="105" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F105" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="106" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D106" s="6">
+        <v>13</v>
+      </c>
+      <c r="E106" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F106" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="G103" s="7" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F104" s="5" t="s">
+      <c r="G106" s="7" t="s">
         <v>729</v>
-      </c>
-    </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D105" s="6">
-        <v>13</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F106" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="107" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F107" s="5" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="108" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D108" s="6">
+      <c r="F108" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="109" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D109" s="6">
         <v>14</v>
       </c>
-      <c r="E108" s="5" t="s">
-        <v>962</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="109" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E109" s="5" t="s">
+        <v>947</v>
+      </c>
       <c r="F109" s="5" t="s">
-        <v>963</v>
+        <v>724</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="110" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F110" s="5" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
     </row>
     <row r="111" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D111" s="6">
+      <c r="F111" s="5" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="112" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D112" s="6">
         <v>15</v>
       </c>
-      <c r="E111" s="5" t="s">
-        <v>966</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>968</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="112" spans="4:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="E112" s="5" t="s">
+        <v>951</v>
+      </c>
       <c r="F112" s="5" t="s">
-        <v>970</v>
+        <v>953</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="F113" s="5" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B115" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="D115" s="6">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F114" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B116" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="D116" s="6">
         <v>1</v>
       </c>
-      <c r="E115" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>891</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="E116" s="5" t="s">
+        <v>823</v>
+      </c>
       <c r="F116" s="7" t="s">
-        <v>892</v>
-      </c>
-      <c r="G116" s="20" t="s">
-        <v>830</v>
+        <v>881</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="117" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="F117" s="7" t="s">
-        <v>893</v>
-      </c>
-      <c r="G117" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="G117" s="20" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F118" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D119" s="6">
+        <v>2</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F120" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D121" s="6">
+        <v>3</v>
+      </c>
+      <c r="E121" s="5" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D118" s="6">
-        <v>2</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F119" s="5" t="s">
+      <c r="F121" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="G121" s="7" t="s">
         <v>836</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D120" s="6">
-        <v>3</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F121" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F122" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="G122" s="7" t="s">
         <v>839</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F123" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>840</v>
       </c>
-      <c r="G123" s="7" t="s">
-        <v>847</v>
-      </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F124" s="5" t="s">
-        <v>841</v>
+      <c r="F124" s="39" t="s">
+        <v>1069</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F125" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F126" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D127" s="6">
+        <v>4</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="F127" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="G125" s="7" t="s">
+      <c r="G127" s="7" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F128" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B130" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D126" s="6">
-        <v>4</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="F126" s="5" t="s">
+      <c r="D130" s="6">
+        <v>1</v>
+      </c>
+      <c r="E130" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="G126" s="7" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F127" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B129" s="6" t="s">
-        <v>854</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>855</v>
-      </c>
-      <c r="D129" s="6">
-        <v>1</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F130" s="5" t="s">
-        <v>606</v>
+        <v>537</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F131" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>1031</v>
+        <v>602</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D132" s="6">
+      <c r="F132" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D133" s="6">
         <v>2</v>
       </c>
-      <c r="E132" s="5" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F133" s="5" t="s">
-        <v>1034</v>
+      <c r="E133" s="5" t="s">
+        <v>1018</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>747</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F134" s="5" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D135" s="6">
+      <c r="F135" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D136" s="6">
         <v>3</v>
       </c>
-      <c r="E135" s="5" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F136" s="5" t="s">
-        <v>1039</v>
+      <c r="E136" s="5" t="s">
+        <v>1022</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>762</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F137" s="5" t="s">
-        <v>1040</v>
+        <v>1024</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D138" s="6">
+      <c r="F138" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D139" s="6">
         <v>4</v>
       </c>
-      <c r="E138" s="5" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E139" s="5" t="s">
+        <v>1026</v>
+      </c>
       <c r="F139" s="5" t="s">
-        <v>1043</v>
+        <v>1027</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>1045</v>
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F140" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
@@ -12625,27 +13276,32 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 K2:IU2">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G158">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(G158))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
